--- a/Data/Pages/dlgProfil_pagProfil.xlsx
+++ b/Data/Pages/dlgProfil_pagProfil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\PythonProject1\Data\Pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90C7797-C8AB-426B-BD06-EB46563A89F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939B05FE-C707-4F2B-9B62-080FB535C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="924" windowWidth="35220" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1512" yWindow="6936" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Control</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>txtAktuellesPasswort</t>
+  </si>
+  <si>
+    <t>Schmotz</t>
+  </si>
+  <si>
+    <t>Matthias</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,6 +614,12 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Data/Pages/dlgProfil_pagProfil.xlsx
+++ b/Data/Pages/dlgProfil_pagProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939B05FE-C707-4F2B-9B62-080FB535C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD27D14-9F17-48F5-B6C1-6A09E2085E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1512" yWindow="6936" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1164" yWindow="1920" windowWidth="40116" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Record/Selector</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Check defaults</t>
   </si>
   <si>
-    <t>Modus</t>
-  </si>
-  <si>
-    <t>&lt;CHK&gt;</t>
-  </si>
-  <si>
     <t>picProfilfoto</t>
   </si>
   <si>
@@ -103,13 +88,22 @@
   </si>
   <si>
     <t>Matthias</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record / Control </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,13 +111,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,8 +152,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -163,13 +180,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>235409</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>281129</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>120510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -503,122 +520,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="24.44140625" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="24.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgProfil_pagProfil.xlsx
+++ b/Data/Pages/dlgProfil_pagProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD27D14-9F17-48F5-B6C1-6A09E2085E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2A7CC-0FB4-487D-9F9C-6D72FDC588CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="1920" windowWidth="40116" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1020" yWindow="516" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Check defaults</t>
   </si>
@@ -97,6 +97,60 @@
   </si>
   <si>
     <t xml:space="preserve">Record / Control </t>
+  </si>
+  <si>
+    <t>//android.widget.Image[@resource-id="uploadedAvatar"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id="profilePictureInput"]</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text=""]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@resource-id="gender"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="first_name"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="last_name"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="email"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="emails_copies"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="phone"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="mobile_phone"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Spinner[@resource-id="birthday"]</t>
+  </si>
+  <si>
+    <t>//android.widget.CheckBox[@resource-id="hide_birthday"]</t>
+  </si>
+  <si>
+    <t>//android.widget.CheckBox[@resource-id="public_contact_data"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="current_password"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="new_password"]</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id="password_confirmation"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text="Speichern"]</t>
   </si>
 </sst>
 </file>
@@ -120,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +193,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -152,11 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -179,15 +240,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>281129</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1424129</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>120510</xdr:rowOff>
+      <xdr:rowOff>135750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -210,7 +271,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="914400"/>
+          <a:off x="22860" y="1112520"/>
           <a:ext cx="21723809" cy="11276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -522,29 +583,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="24.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -574,24 +637,60 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
